--- a/flask-server/data.xlsx
+++ b/flask-server/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CityPassBot\flask-server\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CityPassBot\flask-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DEC54D-6172-4811-B497-6EFD5E65C2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96A277-9149-4749-9367-E4CB7A9D01E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6E127A9-C36E-4025-A85E-DC22121BF9F3}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>Памятник, смотровая площадка</t>
   </si>
   <si>
-    <t>пр. Республики, 2</t>
-  </si>
-  <si>
     <t>09:00 - 22:00</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Дворец, выставочный зал</t>
   </si>
   <si>
-    <t>пр. Республики, 4</t>
-  </si>
-  <si>
     <t>09:00 - 19:00</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>Национальный музей Республики Казахстан</t>
   </si>
   <si>
-    <t>пр. Республики, 56</t>
-  </si>
-  <si>
     <t>09:30 - 18:00</t>
   </si>
   <si>
@@ -224,9 +215,6 @@
     <t>Парк</t>
   </si>
   <si>
-    <t>ул. Иманова, 72</t>
-  </si>
-  <si>
     <t>Круглосуточно</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>Khan Shatyr</t>
   </si>
   <si>
-    <t>проспект Кабанбай батыра, 7/1</t>
-  </si>
-  <si>
     <t>10:00 - 22:00</t>
   </si>
   <si>
@@ -284,9 +269,6 @@
     <t>Выставочный комплекс</t>
   </si>
   <si>
-    <t>ул. 38-я линия, 1</t>
-  </si>
-  <si>
     <t>09:00 - 21:00</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t>Архитектурный памятник</t>
   </si>
   <si>
-    <t>пр. Республики, 71</t>
-  </si>
-  <si>
     <t>10:00 - 18:00</t>
   </si>
   <si>
@@ -311,9 +290,6 @@
     <t>Аквапарк "Hawaii"</t>
   </si>
   <si>
-    <t>пр. Кабанбай батыра, 3/1</t>
-  </si>
-  <si>
     <t>Водные горки, бассейны, сауны</t>
   </si>
   <si>
@@ -323,9 +299,6 @@
     <t>ТРЦ "Mega Silk Way"</t>
   </si>
   <si>
-    <t>ул. Туран, 47</t>
-  </si>
-  <si>
     <t>Шоппинг, кинотеатр, боулинг, рестораны</t>
   </si>
   <si>
@@ -333,6 +306,33 @@
   </si>
   <si>
     <t>Развлечения</t>
+  </si>
+  <si>
+    <t>пр. Республики, 2, г. Астана</t>
+  </si>
+  <si>
+    <t>пр. Республики, 4, г. Астана</t>
+  </si>
+  <si>
+    <t>пр. Республики, 56, г. Астана</t>
+  </si>
+  <si>
+    <t>ул. Иманова, 72, г. Астана</t>
+  </si>
+  <si>
+    <t>проспект Кабанбай батыра, 7/1, г. Астана</t>
+  </si>
+  <si>
+    <t>ул. 38-я линия, 1, г. Астана</t>
+  </si>
+  <si>
+    <t>пр. Республики, 71, г. Астана</t>
+  </si>
+  <si>
+    <t>пр. Кабанбай батыра, 3/1, г. Астана</t>
+  </si>
+  <si>
+    <t>ул. Туран, 47, г. Астана</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -757,12 +755,13 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -801,63 +800,63 @@
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -865,63 +864,63 @@
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -929,351 +928,351 @@
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="4">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="F9" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G10" s="4">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="G11" s="3">
         <v>8</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G12" s="4">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="H12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="G13" s="3">
         <v>8</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="4">
         <v>8</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>78</v>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G16" s="4">
         <v>7</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="H16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
